--- a/VariansGroupBarcoded.xlsx
+++ b/VariansGroupBarcoded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10489255-1214-403F-91F4-C60BDD0B6CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BEA8CB-C68C-424B-8EB4-882D27D6BF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="172">
   <si>
     <t>JN288222</t>
   </si>
@@ -246,9 +246,6 @@
   </si>
   <si>
     <t>UK, Wiltshire, Swindon, Ashbury, nr B4000 road, SU 28563 82251, 19 July 2015, leg. J.J. Shaw, in various dung on calcareous grassland</t>
-  </si>
-  <si>
-    <t>Czech Rep: Sonov</t>
   </si>
   <si>
     <t>KENT, ENGLAND, KNOCKHOLT TQ 47036 58846, 17.iv.14 Coll. JJS.</t>
@@ -536,6 +533,15 @@
   </si>
   <si>
     <t>NORWAY: Nord-Trøndelag, Beitstad, 7730, Bartnes, 64°03'18.3"N, 11°15'08.8"E, 10.VII.2022, from compost heap, leg. J. Jenkins Shaw, Philonthus pseudovarians ♀ / J. Jenkins Shaw det. 2022</t>
+  </si>
+  <si>
+    <t>Czech Rep, Doubravcice,  c.v.2003, 350 m, Hromádka leg. Ex. Coll. L. Hromádka, National museum Prague.</t>
+  </si>
+  <si>
+    <t>Czech Rep: Sonov, Novorudská niva, dr. A. Harnet, lgt. 16.vi.2001, ex. Coll. L. Hromádka, National museum Prague.</t>
+  </si>
+  <si>
+    <t>Czech Rep: Doubravcice, 5954 KO, L. Hromadká leg. Ex. Coll. L. Hromádka, National museum Prague.</t>
   </si>
 </sst>
 </file>
@@ -1403,8 +1409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1420,18 +1426,18 @@
         <v>13</v>
       </c>
       <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
         <v>81</v>
-      </c>
-      <c r="D1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -1443,12 +1449,12 @@
         <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -1460,12 +1466,12 @@
         <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -1477,18 +1483,18 @@
         <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1496,13 +1502,13 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6">
         <v>658</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1510,13 +1516,13 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7">
         <v>658</v>
       </c>
       <c r="E7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1524,13 +1530,13 @@
         <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8">
         <v>658</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1538,7 +1544,7 @@
         <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9">
         <v>658</v>
@@ -1547,7 +1553,7 @@
         <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1555,7 +1561,7 @@
         <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10">
         <v>658</v>
@@ -1564,7 +1570,7 @@
         <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1572,7 +1578,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11">
         <v>407</v>
@@ -1581,7 +1587,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1589,13 +1595,13 @@
         <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12">
         <v>658</v>
       </c>
       <c r="E12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1603,13 +1609,13 @@
         <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13">
         <v>658</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1617,13 +1623,13 @@
         <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14">
         <v>652</v>
       </c>
       <c r="E14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1631,13 +1637,13 @@
         <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15">
         <v>581</v>
       </c>
       <c r="E15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1651,7 +1657,7 @@
         <v>658</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1665,7 +1671,7 @@
         <v>658</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -1680,7 +1686,7 @@
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1697,7 +1703,7 @@
         <v>69</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1714,7 +1720,7 @@
         <v>69</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1731,7 +1737,7 @@
         <v>69</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1745,7 +1751,7 @@
         <v>658</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1759,7 +1765,7 @@
         <v>658</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1773,12 +1779,12 @@
         <v>653</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B25" t="s">
         <v>68</v>
@@ -1790,12 +1796,12 @@
         <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B26" t="s">
         <v>68</v>
@@ -1807,7 +1813,7 @@
         <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1821,7 +1827,7 @@
         <v>658</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1835,7 +1841,7 @@
         <v>567</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1849,40 +1855,40 @@
         <v>594</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B30" t="s">
         <v>68</v>
       </c>
       <c r="E30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B31" t="s">
         <v>68</v>
       </c>
       <c r="E31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B32" t="s">
         <v>68</v>
       </c>
       <c r="E32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -1899,7 +1905,7 @@
         <v>69</v>
       </c>
       <c r="E33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1916,7 +1922,7 @@
         <v>69</v>
       </c>
       <c r="E34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1933,7 +1939,7 @@
         <v>69</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1950,7 +1956,7 @@
         <v>69</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1984,7 +1990,7 @@
         <v>69</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>72</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -2001,12 +2007,12 @@
         <v>69</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>74</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B40" t="s">
         <v>71</v>
@@ -2018,12 +2024,12 @@
         <v>69</v>
       </c>
       <c r="E40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B41" t="s">
         <v>71</v>
@@ -2035,12 +2041,12 @@
         <v>69</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B42" t="s">
         <v>71</v>
@@ -2052,12 +2058,12 @@
         <v>69</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B43" t="s">
         <v>71</v>
@@ -2069,23 +2075,23 @@
         <v>69</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B44" t="s">
         <v>71</v>
       </c>
       <c r="E44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B45" t="s">
         <v>70</v>
@@ -2097,12 +2103,12 @@
         <v>69</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B46" t="s">
         <v>70</v>
@@ -2114,7 +2120,7 @@
         <v>69</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -2131,7 +2137,7 @@
         <v>69</v>
       </c>
       <c r="E47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -2148,7 +2154,7 @@
         <v>69</v>
       </c>
       <c r="E48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -2165,7 +2171,7 @@
         <v>69</v>
       </c>
       <c r="E49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -2182,7 +2188,7 @@
         <v>69</v>
       </c>
       <c r="E50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -2199,7 +2205,7 @@
         <v>69</v>
       </c>
       <c r="E51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -2213,7 +2219,7 @@
         <v>658</v>
       </c>
       <c r="E52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -2227,7 +2233,7 @@
         <v>573</v>
       </c>
       <c r="E53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -2241,7 +2247,7 @@
         <v>658</v>
       </c>
       <c r="E54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -2255,7 +2261,7 @@
         <v>658</v>
       </c>
       <c r="E55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -2269,7 +2275,7 @@
         <v>658</v>
       </c>
       <c r="E56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -2283,7 +2289,7 @@
         <v>658</v>
       </c>
       <c r="E57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -2297,7 +2303,7 @@
         <v>658</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -2311,7 +2317,7 @@
         <v>658</v>
       </c>
       <c r="E59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2328,7 +2334,7 @@
         <v>69</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -2345,7 +2351,7 @@
         <v>69</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2362,7 +2368,7 @@
         <v>69</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2379,7 +2385,7 @@
         <v>69</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -2396,7 +2402,7 @@
         <v>69</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2413,7 +2419,7 @@
         <v>69</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -2461,7 +2467,7 @@
         <v>658</v>
       </c>
       <c r="E68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -2475,7 +2481,7 @@
         <v>658</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -2489,7 +2495,7 @@
         <v>658</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -2503,7 +2509,7 @@
         <v>658</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -2517,7 +2523,7 @@
         <v>658</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -2531,7 +2537,7 @@
         <v>658</v>
       </c>
       <c r="E73" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -2545,7 +2551,7 @@
         <v>658</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -2559,7 +2565,7 @@
         <v>658</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -2573,7 +2579,7 @@
         <v>658</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -2587,7 +2593,7 @@
         <v>658</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -2601,7 +2607,7 @@
         <v>658</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -2615,7 +2621,7 @@
         <v>582</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -2629,7 +2635,7 @@
         <v>655</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -2643,7 +2649,7 @@
         <v>555</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -2657,7 +2663,7 @@
         <v>658</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -2671,7 +2677,7 @@
         <v>658</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -2685,7 +2691,7 @@
         <v>655</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -2699,12 +2705,12 @@
         <v>594</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B86" t="s">
         <v>70</v>
@@ -2716,12 +2722,12 @@
         <v>69</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B87" t="s">
         <v>70</v>
@@ -2733,12 +2739,12 @@
         <v>69</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B88" t="s">
         <v>70</v>
@@ -2750,29 +2756,29 @@
         <v>69</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B89" t="s">
         <v>70</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B90" t="s">
         <v>70</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -2780,7 +2786,7 @@
         <v>64</v>
       </c>
       <c r="B91" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C91">
         <v>407</v>
@@ -2789,7 +2795,7 @@
         <v>69</v>
       </c>
       <c r="E91" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -2800,7 +2806,7 @@
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
